--- a/data/trans_bre/P10_2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P10_2-Estudios-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-10,33</t>
+          <t>-3,98</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-9,81</t>
+          <t>-8,15</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-16,37%</t>
+          <t>-5,68%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-14,35%</t>
+          <t>-11,2%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-19,02; -1,91</t>
+          <t>-17,25; 10,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-19,35; 1,2</t>
+          <t>-20,29; 2,93</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-27,87; -3,6</t>
+          <t>-22,57; 16,86</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-27,1; 1,96</t>
+          <t>-26,11; 4,36</t>
         </is>
       </c>
     </row>
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-1,32</t>
+          <t>0,76</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,1%</t>
+          <t>1,17%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-1,5%</t>
+          <t>0,88%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 5,33</t>
+          <t>-6,2; 10,56</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,07; 4,39</t>
+          <t>-5,71; 10,98</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 6,43</t>
+          <t>-6,92; 13,45</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,75; 5,11</t>
+          <t>-6,27; 13,87</t>
         </is>
       </c>
     </row>
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>1,65</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,93</t>
+          <t>3,75</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,04%</t>
+          <t>1,73%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,24%</t>
+          <t>4,02%</t>
         </is>
       </c>
     </row>
@@ -729,29 +729,29 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 3,13</t>
+          <t>-1,96; 8,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,15; 10,69</t>
+          <t>-0,61; 10,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 3,33</t>
+          <t>-2,02; 9,54</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,16; 12,33</t>
+          <t>-0,62; 12,34</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-3,72</t>
+          <t>-6,64</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-2,61</t>
+          <t>-4,9</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-4,4%</t>
+          <t>-7,96%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-3,03%</t>
+          <t>-5,82%</t>
         </is>
       </c>
     </row>
@@ -789,30 +789,98 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-6,37; -0,53</t>
+          <t>-10,69; -2,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,35; 1,15</t>
+          <t>-9,82; 1,04</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-7,41; -0,65</t>
+          <t>-12,63; -2,86</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-7,29; 1,37</t>
+          <t>-11,38; 1,2</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-3,58</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-2,0</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-4,23%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-2,34%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-6,57; -0,4</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-5,05; 2,1</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-7,62; -0,51</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-5,79; 2,48</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>

--- a/data/trans_bre/P10_2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P10_2-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-3,98</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-8,15</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-5,68%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-11,2%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-3.979526063585626</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-7.076422103886815</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>-0.05680256153299089</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>-0.09643895938751795</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-17,25; 10,52</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-20,29; 2,93</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-22,57; 16,86</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-26,11; 4,36</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-17.24988220278617</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-18.54551105842063</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>-0.2256692675573457</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.2391717612542422</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>10.52073195161048</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>3.832489521544446</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>0.1686112355380671</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0.05670179629559804</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>1,01</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,76</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>1,17%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,88%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-6,2; 10,56</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-5,71; 10,98</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-6,92; 13,45</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-6,27; 13,87</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>1.010130501012452</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.8954220009738334</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.01169143228502426</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0.01033939768441003</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>1,65</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>3,75</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,73%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>4,02%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-6.204124399028956</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-5.288452936407772</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.06915860105562406</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.05824127989469718</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-1,96; 8,46</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-0,61; 10,86</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-2,02; 9,54</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-0,62; 12,34</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>10.56472774600692</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>10.24201458070382</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.1344735325675509</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0.128863892946444</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,132 +716,139 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-6,64</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-4,9</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-7,96%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-5,82%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>1.651483040937529</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>3.593842906863631</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>0.01734459994591815</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0.03847585191356152</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-10,69; -2,29</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-9,82; 1,04</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-12,63; -2,86</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-11,38; 1,2</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-1.963720045476127</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.6621710375609183</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>-0.0202365243747409</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.006340909400945685</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>8.462781464920662</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>10.47598153676825</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>0.09537968334828294</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>0.1200941119560289</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-3,58</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-2,0</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-4,23%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-2,34%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-6,57; -0,4</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-5,05; 2,1</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-7,62; -0,51</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-5,79; 2,48</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>0.4059279517324543</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-0.1160111781577711</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.004685398612473577</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>-0.001334654638152554</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-4.102808664565968</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-4.298897256588569</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.04584809286944591</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.04827172474494903</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>5.485814879954646</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>4.441730640034011</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.0651377398195299</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.05244826192780108</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
